--- a/Planning/Planning_9_5_16_5.xlsx
+++ b/Planning/Planning_9_5_16_5.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2614968-EEA5-4690-813F-20D1C694B76D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F979D901-5031-4FCB-8772-F3B15CD09846}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="13170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
   <si>
     <t>Task</t>
   </si>
@@ -388,16 +388,16 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.88671875" customWidth="1"/>
-    <col min="6" max="6" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.85546875" customWidth="1"/>
+    <col min="6" max="6" width="20.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -417,7 +417,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -428,7 +428,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -439,7 +439,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -450,11 +450,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
       <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
         <v>14</v>
       </c>
       <c r="F5" t="s">

--- a/Planning/Planning_9_5_16_5.xlsx
+++ b/Planning/Planning_9_5_16_5.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F979D901-5031-4FCB-8772-F3B15CD09846}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{560208A9-0C15-4521-82E4-ECB2C90C7EB5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="13170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
   <si>
     <t>Task</t>
   </si>
@@ -68,6 +68,18 @@
   </si>
   <si>
     <t>Strutzenberger</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>begin implementing TicTacToe</t>
+  </si>
+  <si>
+    <t>Tischler, Strutzenberger</t>
+  </si>
+  <si>
+    <t>Trinkl, Punz</t>
   </si>
 </sst>
 </file>
@@ -385,19 +397,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.85546875" customWidth="1"/>
-    <col min="6" max="6" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.88671875" customWidth="1"/>
+    <col min="6" max="6" width="20.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -417,29 +429,41 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>10</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
       </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
       <c r="F2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>11</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
       </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
       <c r="F3" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -450,7 +474,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -460,8 +484,25 @@
       <c r="D5" t="s">
         <v>14</v>
       </c>
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
       <c r="F5" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/Planning/Planning_9_5_16_5.xlsx
+++ b/Planning/Planning_9_5_16_5.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{560208A9-0C15-4521-82E4-ECB2C90C7EB5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E36AC93E-DD94-4BA9-ADB5-C4B67B0A0C4B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="13170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="20">
   <si>
     <t>Task</t>
   </si>
@@ -400,16 +400,16 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.88671875" customWidth="1"/>
-    <col min="6" max="6" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.85546875" customWidth="1"/>
+    <col min="6" max="6" width="20.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -429,7 +429,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -446,7 +446,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -463,18 +463,24 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
       </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
       <c r="F4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -491,7 +497,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>17</v>
       </c>
